--- a/NewClustersWithVDV.xlsx
+++ b/NewClustersWithVDV.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ClusterPy\Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0600419B-03F3-4F18-85E7-CD2549DFB1CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05006F30-5AEF-4AD3-93F9-8CFFF9527386}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6198,7 +6198,7 @@
   <dimension ref="A1:F1870"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6208,7 +6208,6 @@
     <col min="3" max="3" width="44.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.21875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -8268,7 +8267,7 @@
         <v>6164</v>
       </c>
       <c r="F103">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.3">
@@ -8348,7 +8347,7 @@
         <v>4278</v>
       </c>
       <c r="F107">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.3">
@@ -8488,7 +8487,7 @@
         <v>5260</v>
       </c>
       <c r="F114">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.3">
@@ -8548,7 +8547,7 @@
         <v>4038</v>
       </c>
       <c r="F117">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.3">
@@ -8568,7 +8567,7 @@
         <v>4382</v>
       </c>
       <c r="F118">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.3">
@@ -8588,7 +8587,7 @@
         <v>6498</v>
       </c>
       <c r="F119">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.3">
@@ -8688,7 +8687,7 @@
         <v>9576</v>
       </c>
       <c r="F124">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.3">
@@ -8948,7 +8947,7 @@
         <v>4498</v>
       </c>
       <c r="F137">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.3">
@@ -8968,7 +8967,7 @@
         <v>4578</v>
       </c>
       <c r="F138">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.3">
@@ -9148,7 +9147,7 @@
         <v>4364</v>
       </c>
       <c r="F147">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.3">
@@ -9208,7 +9207,7 @@
         <v>7216</v>
       </c>
       <c r="F150">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.3">
@@ -9268,7 +9267,7 @@
         <v>6554</v>
       </c>
       <c r="F153">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.3">
@@ -9448,7 +9447,7 @@
         <v>4584</v>
       </c>
       <c r="F162">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.3">
@@ -9468,7 +9467,7 @@
         <v>5890</v>
       </c>
       <c r="F163">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.3">
@@ -9508,7 +9507,7 @@
         <v>6744</v>
       </c>
       <c r="F165">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.3">
@@ -10508,7 +10507,7 @@
         <v>4272</v>
       </c>
       <c r="F215">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.3">
@@ -10668,7 +10667,7 @@
         <v>7006</v>
       </c>
       <c r="F223">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.3">
@@ -10748,7 +10747,7 @@
         <v>4234</v>
       </c>
       <c r="F227">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.3">
@@ -10928,7 +10927,7 @@
         <v>6420</v>
       </c>
       <c r="F236">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.3">
@@ -11288,7 +11287,7 @@
         <v>5844</v>
       </c>
       <c r="F254">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.3">
@@ -11428,7 +11427,7 @@
         <v>110024</v>
       </c>
       <c r="F261">
-        <v>1</v>
+        <v>28</v>
       </c>
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.3">
@@ -11488,7 +11487,7 @@
         <v>5164</v>
       </c>
       <c r="F264">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.3">
@@ -11628,7 +11627,7 @@
         <v>54438</v>
       </c>
       <c r="F271">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.3">
@@ -11748,7 +11747,7 @@
         <v>76008</v>
       </c>
       <c r="F277">
-        <v>1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.3">
@@ -11788,7 +11787,7 @@
         <v>54438</v>
       </c>
       <c r="F279">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.3">
@@ -11808,7 +11807,7 @@
         <v>14632</v>
       </c>
       <c r="F280">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.3">
@@ -11828,7 +11827,7 @@
         <v>4338</v>
       </c>
       <c r="F281">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.3">
@@ -11848,7 +11847,7 @@
         <v>12174</v>
       </c>
       <c r="F282">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.3">
@@ -11868,7 +11867,7 @@
         <v>8584</v>
       </c>
       <c r="F283">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.3">
@@ -12168,7 +12167,7 @@
         <v>7940</v>
       </c>
       <c r="F298">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="299" spans="1:6" x14ac:dyDescent="0.3">
@@ -12948,7 +12947,7 @@
         <v>6076</v>
       </c>
       <c r="F337">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="338" spans="1:6" x14ac:dyDescent="0.3">
@@ -13088,7 +13087,7 @@
         <v>4382</v>
       </c>
       <c r="F344">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="345" spans="1:6" x14ac:dyDescent="0.3">
@@ -13168,7 +13167,7 @@
         <v>4008</v>
       </c>
       <c r="F348">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="349" spans="1:6" x14ac:dyDescent="0.3">
@@ -13248,7 +13247,7 @@
         <v>5180</v>
       </c>
       <c r="F352">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="353" spans="1:6" x14ac:dyDescent="0.3">
@@ -13288,7 +13287,7 @@
         <v>11472</v>
       </c>
       <c r="F354">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="355" spans="1:6" x14ac:dyDescent="0.3">
@@ -13428,7 +13427,7 @@
         <v>10074</v>
       </c>
       <c r="F361">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="362" spans="1:6" x14ac:dyDescent="0.3">
@@ -13488,7 +13487,7 @@
         <v>6946</v>
       </c>
       <c r="F364">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="365" spans="1:6" x14ac:dyDescent="0.3">
@@ -13528,7 +13527,7 @@
         <v>13196</v>
       </c>
       <c r="F366">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="367" spans="1:6" x14ac:dyDescent="0.3">
@@ -13688,7 +13687,7 @@
         <v>5994</v>
       </c>
       <c r="F374">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="375" spans="1:6" x14ac:dyDescent="0.3">
@@ -13808,7 +13807,7 @@
         <v>4008</v>
       </c>
       <c r="F380">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="381" spans="1:6" x14ac:dyDescent="0.3">
@@ -14668,7 +14667,7 @@
         <v>7858</v>
       </c>
       <c r="F423">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="424" spans="1:6" x14ac:dyDescent="0.3">
@@ -14688,7 +14687,7 @@
         <v>58388</v>
       </c>
       <c r="F424">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="425" spans="1:6" x14ac:dyDescent="0.3">
@@ -14868,7 +14867,7 @@
         <v>5682</v>
       </c>
       <c r="F433">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="434" spans="1:6" x14ac:dyDescent="0.3">
@@ -14928,7 +14927,7 @@
         <v>8292</v>
       </c>
       <c r="F436">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="437" spans="1:6" x14ac:dyDescent="0.3">
@@ -14948,7 +14947,7 @@
         <v>9004</v>
       </c>
       <c r="F437">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="438" spans="1:6" x14ac:dyDescent="0.3">
@@ -14968,7 +14967,7 @@
         <v>7242</v>
       </c>
       <c r="F438">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="439" spans="1:6" x14ac:dyDescent="0.3">
@@ -14988,7 +14987,7 @@
         <v>6226</v>
       </c>
       <c r="F439">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="440" spans="1:6" x14ac:dyDescent="0.3">
@@ -15068,7 +15067,7 @@
         <v>5036</v>
       </c>
       <c r="F443">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="444" spans="1:6" x14ac:dyDescent="0.3">
@@ -15488,7 +15487,7 @@
         <v>5988</v>
       </c>
       <c r="F464">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="465" spans="1:6" x14ac:dyDescent="0.3">
@@ -16668,7 +16667,7 @@
         <v>6626</v>
       </c>
       <c r="F523">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="524" spans="1:6" x14ac:dyDescent="0.3">
@@ -16708,7 +16707,7 @@
         <v>25354</v>
       </c>
       <c r="F525">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="526" spans="1:6" x14ac:dyDescent="0.3">
@@ -18128,7 +18127,7 @@
         <v>4822</v>
       </c>
       <c r="F596">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="597" spans="1:6" x14ac:dyDescent="0.3">
@@ -22388,7 +22387,7 @@
         <v>5758</v>
       </c>
       <c r="F809">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="810" spans="1:6" x14ac:dyDescent="0.3">
@@ -22608,7 +22607,7 @@
         <v>16396</v>
       </c>
       <c r="F820">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="821" spans="1:6" x14ac:dyDescent="0.3">
@@ -22708,7 +22707,7 @@
         <v>4084</v>
       </c>
       <c r="F825">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="826" spans="1:6" x14ac:dyDescent="0.3">
@@ -26228,7 +26227,7 @@
         <v>4000</v>
       </c>
       <c r="F1001">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1002" spans="1:6" x14ac:dyDescent="0.3">
@@ -30368,7 +30367,7 @@
         <v>4370</v>
       </c>
       <c r="F1208">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1209" spans="1:6" x14ac:dyDescent="0.3">
@@ -30388,7 +30387,7 @@
         <v>4536</v>
       </c>
       <c r="F1209">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1210" spans="1:6" x14ac:dyDescent="0.3">
@@ -30548,7 +30547,7 @@
         <v>5948</v>
       </c>
       <c r="F1217">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1218" spans="1:6" x14ac:dyDescent="0.3">
@@ -31788,7 +31787,7 @@
         <v>5012</v>
       </c>
       <c r="F1279">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1280" spans="1:6" x14ac:dyDescent="0.3">
@@ -33488,7 +33487,7 @@
         <v>4572</v>
       </c>
       <c r="F1364">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1365" spans="1:6" x14ac:dyDescent="0.3">
@@ -33508,7 +33507,7 @@
         <v>5720</v>
       </c>
       <c r="F1365">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1366" spans="1:6" x14ac:dyDescent="0.3">
@@ -33568,7 +33567,7 @@
         <v>5218</v>
       </c>
       <c r="F1368">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1369" spans="1:6" x14ac:dyDescent="0.3">
@@ -33628,7 +33627,7 @@
         <v>6234</v>
       </c>
       <c r="F1371">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1372" spans="1:6" x14ac:dyDescent="0.3">
@@ -33668,7 +33667,7 @@
         <v>6968</v>
       </c>
       <c r="F1373">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1374" spans="1:6" x14ac:dyDescent="0.3">
@@ -33728,7 +33727,7 @@
         <v>6300</v>
       </c>
       <c r="F1376">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1377" spans="1:6" x14ac:dyDescent="0.3">
@@ -33808,7 +33807,7 @@
         <v>4764</v>
       </c>
       <c r="F1380">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1381" spans="1:6" x14ac:dyDescent="0.3">
@@ -33868,7 +33867,7 @@
         <v>5550</v>
       </c>
       <c r="F1383">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1384" spans="1:6" x14ac:dyDescent="0.3">
@@ -33988,7 +33987,7 @@
         <v>6294</v>
       </c>
       <c r="F1389">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1390" spans="1:6" x14ac:dyDescent="0.3">
@@ -34168,7 +34167,7 @@
         <v>4824</v>
       </c>
       <c r="F1398">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1399" spans="1:6" x14ac:dyDescent="0.3">
@@ -34228,7 +34227,7 @@
         <v>4282</v>
       </c>
       <c r="F1401">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1402" spans="1:6" x14ac:dyDescent="0.3">
@@ -34248,7 +34247,7 @@
         <v>5166</v>
       </c>
       <c r="F1402">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1403" spans="1:6" x14ac:dyDescent="0.3">
@@ -34328,7 +34327,7 @@
         <v>4074</v>
       </c>
       <c r="F1406">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1407" spans="1:6" x14ac:dyDescent="0.3">
@@ -35368,7 +35367,7 @@
         <v>4482</v>
       </c>
       <c r="F1458">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1459" spans="1:6" x14ac:dyDescent="0.3">
@@ -35988,7 +35987,7 @@
         <v>4750</v>
       </c>
       <c r="F1489">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1490" spans="1:6" x14ac:dyDescent="0.3">
@@ -36248,7 +36247,7 @@
         <v>4078</v>
       </c>
       <c r="F1502">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1503" spans="1:6" x14ac:dyDescent="0.3">
@@ -36568,7 +36567,7 @@
         <v>5788</v>
       </c>
       <c r="F1518">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1519" spans="1:6" x14ac:dyDescent="0.3">
@@ -36688,7 +36687,7 @@
         <v>4826</v>
       </c>
       <c r="F1524">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1525" spans="1:6" x14ac:dyDescent="0.3">
@@ -38308,7 +38307,7 @@
         <v>4802</v>
       </c>
       <c r="F1605">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1606" spans="1:6" x14ac:dyDescent="0.3">
@@ -38668,7 +38667,7 @@
         <v>5492</v>
       </c>
       <c r="F1623">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1624" spans="1:6" x14ac:dyDescent="0.3">
@@ -38688,7 +38687,7 @@
         <v>8054</v>
       </c>
       <c r="F1624">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1625" spans="1:6" x14ac:dyDescent="0.3">
@@ -38868,7 +38867,7 @@
         <v>4084</v>
       </c>
       <c r="F1633">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1634" spans="1:6" x14ac:dyDescent="0.3">
@@ -38908,7 +38907,7 @@
         <v>5080</v>
       </c>
       <c r="F1635">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1636" spans="1:6" x14ac:dyDescent="0.3">
@@ -38988,7 +38987,7 @@
         <v>5622</v>
       </c>
       <c r="F1639">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1640" spans="1:6" x14ac:dyDescent="0.3">
@@ -39128,7 +39127,7 @@
         <v>5098</v>
       </c>
       <c r="F1646">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1647" spans="1:6" x14ac:dyDescent="0.3">
@@ -39228,7 +39227,7 @@
         <v>4656</v>
       </c>
       <c r="F1651">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1652" spans="1:6" x14ac:dyDescent="0.3">
@@ -39308,7 +39307,7 @@
         <v>4678</v>
       </c>
       <c r="F1655">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1656" spans="1:6" x14ac:dyDescent="0.3">
@@ -39608,7 +39607,7 @@
         <v>4928</v>
       </c>
       <c r="F1670">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1671" spans="1:6" x14ac:dyDescent="0.3">
@@ -39648,7 +39647,7 @@
         <v>5606</v>
       </c>
       <c r="F1672">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1673" spans="1:6" x14ac:dyDescent="0.3">
@@ -39728,7 +39727,7 @@
         <v>6854</v>
       </c>
       <c r="F1676">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1677" spans="1:6" x14ac:dyDescent="0.3">
@@ -39908,7 +39907,7 @@
         <v>9748</v>
       </c>
       <c r="F1685">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1686" spans="1:6" x14ac:dyDescent="0.3">
@@ -39988,7 +39987,7 @@
         <v>5684</v>
       </c>
       <c r="F1689">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1690" spans="1:6" x14ac:dyDescent="0.3">
@@ -40088,7 +40087,7 @@
         <v>13930</v>
       </c>
       <c r="F1694">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1695" spans="1:6" x14ac:dyDescent="0.3">
@@ -40208,7 +40207,7 @@
         <v>6440</v>
       </c>
       <c r="F1700">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1701" spans="1:6" x14ac:dyDescent="0.3">
@@ -40228,7 +40227,7 @@
         <v>6212</v>
       </c>
       <c r="F1701">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1702" spans="1:6" x14ac:dyDescent="0.3">
@@ -40248,7 +40247,7 @@
         <v>12336</v>
       </c>
       <c r="F1702">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1703" spans="1:6" x14ac:dyDescent="0.3">
@@ -40428,7 +40427,7 @@
         <v>6620</v>
       </c>
       <c r="F1711">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1712" spans="1:6" x14ac:dyDescent="0.3">
@@ -40488,7 +40487,7 @@
         <v>4078</v>
       </c>
       <c r="F1714">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1715" spans="1:6" x14ac:dyDescent="0.3">
@@ -40828,7 +40827,7 @@
         <v>13958</v>
       </c>
       <c r="F1731">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1732" spans="1:6" x14ac:dyDescent="0.3">
@@ -40848,7 +40847,7 @@
         <v>4274</v>
       </c>
       <c r="F1732">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1733" spans="1:6" x14ac:dyDescent="0.3">
@@ -41128,7 +41127,7 @@
         <v>6176</v>
       </c>
       <c r="F1746">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1747" spans="1:6" x14ac:dyDescent="0.3">
@@ -41248,7 +41247,7 @@
         <v>5636</v>
       </c>
       <c r="F1752">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1753" spans="1:6" x14ac:dyDescent="0.3">
@@ -41428,7 +41427,7 @@
         <v>4494</v>
       </c>
       <c r="F1761">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1762" spans="1:6" x14ac:dyDescent="0.3">
@@ -41768,7 +41767,7 @@
         <v>4000</v>
       </c>
       <c r="F1778">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1779" spans="1:6" x14ac:dyDescent="0.3">
